--- a/Szakdolgozat_WEBSHOP-SQL.xlsx
+++ b/Szakdolgozat_WEBSHOP-SQL.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://szaleziakk-my.sharepoint.com/personal/fabu_a_norbert_dk_akkszalezi_hu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabu.a.norbert\Documents\tervek\SQL-WEBSHOP_Szakdolgozat-2025-26\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B73A6D3-60EC-493E-8CCB-D11DB323BDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D22FCE-7A06-4998-84B8-AFC1C0850179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="8" activeTab="8" xr2:uid="{F2BFF730-DC48-4C04-A1D0-7D82C6AC042A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="8" xr2:uid="{F2BFF730-DC48-4C04-A1D0-7D82C6AC042A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Felhasznalo" sheetId="1" r:id="rId1"/>
-    <sheet name="Cikk" sheetId="8" r:id="rId2"/>
-    <sheet name="Csomag" sheetId="9" r:id="rId3"/>
-    <sheet name="Rendeles" sheetId="10" r:id="rId4"/>
-    <sheet name="Rendeles_tetel" sheetId="11" r:id="rId5"/>
-    <sheet name="Bankkartya_adatok" sheetId="3" r:id="rId6"/>
-    <sheet name="Fizetes" sheetId="7" r:id="rId7"/>
-    <sheet name="Hazhozszallitas" sheetId="4" r:id="rId8"/>
-    <sheet name="Csomagatvetel" sheetId="6" r:id="rId9"/>
+    <sheet name="User (Felhasznalo)" sheetId="1" r:id="rId1"/>
+    <sheet name="Item (Cikk)" sheetId="8" r:id="rId2"/>
+    <sheet name="Package (Csomag)" sheetId="9" r:id="rId3"/>
+    <sheet name="Order (Rendeles)" sheetId="10" r:id="rId4"/>
+    <sheet name="Order_item (Rendeles_tetel)" sheetId="11" r:id="rId5"/>
+    <sheet name="Card_detail (Bankkartya_adat)" sheetId="3" r:id="rId6"/>
+    <sheet name="Payment (Fizetes)" sheetId="7" r:id="rId7"/>
+    <sheet name="Home_delivery (Hazhozszallitas)" sheetId="4" r:id="rId8"/>
+    <sheet name="Package_pickup (Csomagatvetel)" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -224,7 +224,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -616,17 +616,17 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -640,7 +640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -651,7 +651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -659,7 +659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -667,7 +667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -675,7 +675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -683,7 +683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -691,7 +691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -699,7 +699,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>18</v>
       </c>
@@ -707,7 +707,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
   </sheetData>
@@ -724,12 +724,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -743,7 +743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -754,7 +754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>22</v>
       </c>
@@ -762,7 +762,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>24</v>
       </c>
@@ -770,7 +770,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -791,12 +791,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -810,7 +810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -821,7 +821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>29</v>
       </c>
@@ -842,12 +842,12 @@
       <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -861,7 +861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -872,7 +872,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>32</v>
       </c>
@@ -880,7 +880,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -888,7 +888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>28</v>
       </c>
@@ -909,12 +909,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -928,7 +928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -939,7 +939,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
@@ -947,7 +947,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>34</v>
       </c>
@@ -968,12 +968,12 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -987,7 +987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -998,7 +998,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>37</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>38</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>39</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>40</v>
       </c>
@@ -1043,12 +1043,12 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>43</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>44</v>
       </c>
@@ -1102,12 +1102,12 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>48</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>49</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>50</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>51</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>52</v>
       </c>
@@ -1185,12 +1185,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>55</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>57</v>
       </c>
@@ -1237,9 +1237,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1369,22 +1372,42 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90A3B950-F323-4FBB-803F-F53D66B677E8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C03F15B9-011E-4588-A3DA-4899781C1D9F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{331C3AE1-75D0-49E2-9CC6-CEF7876D66CD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{331C3AE1-75D0-49E2-9CC6-CEF7876D66CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="85c70af9-8e16-4cc6-89bf-921754273c06"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C03F15B9-011E-4588-A3DA-4899781C1D9F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90A3B950-F323-4FBB-803F-F53D66B677E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Szakdolgozat_WEBSHOP-SQL.xlsx
+++ b/Szakdolgozat_WEBSHOP-SQL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabu.a.norbert\Documents\tervek\SQL-WEBSHOP_Szakdolgozat-2025-26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilyes.borbala\Documents\Ilyés Borbála\szakdoga\SQL-WEBSHOP_Szakdolgozat-2025-26\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D22FCE-7A06-4998-84B8-AFC1C0850179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63A3EDC-90A4-4653-9E1A-94562AB2F5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="8" xr2:uid="{F2BFF730-DC48-4C04-A1D0-7D82C6AC042A}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="8" xr2:uid="{F2BFF730-DC48-4C04-A1D0-7D82C6AC042A}"/>
   </bookViews>
   <sheets>
     <sheet name="User (Felhasznalo)" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Order_item (Rendeles_tetel)" sheetId="11" r:id="rId5"/>
     <sheet name="Card_detail (Bankkartya_adat)" sheetId="3" r:id="rId6"/>
     <sheet name="Payment (Fizetes)" sheetId="7" r:id="rId7"/>
-    <sheet name="Home_delivery (Hazhozszallitas)" sheetId="4" r:id="rId8"/>
+    <sheet name="Home_delivery(Hazhoz_szallitas)" sheetId="4" r:id="rId8"/>
     <sheet name="Package_pickup (Csomagatvetel)" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -224,7 +224,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +253,14 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -274,11 +282,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -721,7 +730,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,7 +974,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,7 +1108,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,7 +1191,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,7 +1217,7 @@
       <c r="A2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C2" t="s">
@@ -1237,12 +1246,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1372,15 +1378,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C03F15B9-011E-4588-A3DA-4899781C1D9F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90A3B950-F323-4FBB-803F-F53D66B677E8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1404,10 +1414,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90A3B950-F323-4FBB-803F-F53D66B677E8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C03F15B9-011E-4588-A3DA-4899781C1D9F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Szakdolgozat_WEBSHOP-SQL.xlsx
+++ b/Szakdolgozat_WEBSHOP-SQL.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilyes.borbala\Documents\Ilyés Borbála\szakdoga\SQL-WEBSHOP_Szakdolgozat-2025-26\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63A3EDC-90A4-4653-9E1A-94562AB2F5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CDD1CD-EA94-4EDA-9574-F82AC50A27D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="8" xr2:uid="{F2BFF730-DC48-4C04-A1D0-7D82C6AC042A}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="4" activeTab="5" xr2:uid="{F2BFF730-DC48-4C04-A1D0-7D82C6AC042A}"/>
   </bookViews>
   <sheets>
     <sheet name="User (Felhasznalo)" sheetId="1" r:id="rId1"/>
-    <sheet name="Item (Cikk)" sheetId="8" r:id="rId2"/>
-    <sheet name="Package (Csomag)" sheetId="9" r:id="rId3"/>
-    <sheet name="Order (Rendeles)" sheetId="10" r:id="rId4"/>
-    <sheet name="Order_item (Rendeles_tetel)" sheetId="11" r:id="rId5"/>
-    <sheet name="Card_detail (Bankkartya_adat)" sheetId="3" r:id="rId6"/>
-    <sheet name="Payment (Fizetes)" sheetId="7" r:id="rId7"/>
-    <sheet name="Home_delivery(Hazhoz_szallitas)" sheetId="4" r:id="rId8"/>
-    <sheet name="Package_pickup (Csomagatvetel)" sheetId="6" r:id="rId9"/>
+    <sheet name="Munka1" sheetId="12" r:id="rId2"/>
+    <sheet name="Item (Cikk)" sheetId="8" r:id="rId3"/>
+    <sheet name="Package (Csomag)" sheetId="9" r:id="rId4"/>
+    <sheet name="Order (Rendeles)" sheetId="10" r:id="rId5"/>
+    <sheet name="Package_Item(Csomagtétel)" sheetId="13" r:id="rId6"/>
+    <sheet name="Order_item (Rendeles_tetel)" sheetId="11" r:id="rId7"/>
+    <sheet name="Card_detail (Bankkartya_adat)" sheetId="3" r:id="rId8"/>
+    <sheet name="Payment (Fizetes)" sheetId="7" r:id="rId9"/>
+    <sheet name="Home_delivery(Hazhoz_szallitas)" sheetId="4" r:id="rId10"/>
+    <sheet name="Package_pickup (Csomagatvetel)" sheetId="6" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="60">
   <si>
     <t>Tábla neve</t>
   </si>
@@ -218,6 +220,12 @@
   </si>
   <si>
     <t>szalitasi_ceg</t>
+  </si>
+  <si>
+    <t>Csomagtétel</t>
+  </si>
+  <si>
+    <t>menny</t>
   </si>
 </sst>
 </file>
@@ -725,12 +733,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC54B49-F553-4F18-B528-CA727B92FF1D}">
-  <dimension ref="A1:D5"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A451CA12-D4E9-412D-8A89-F3986287E4AB}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,6 +762,160 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DEA5A8-DD02-4FE0-9C57-D98A56E01DBB}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748F45BC-A829-4C8A-A726-34129AD08EC1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC54B49-F553-4F18-B528-CA727B92FF1D}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -792,7 +954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CBEFB2-AAE7-4268-9053-213ADBBB3A08}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -843,12 +1005,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3CAB46-678D-452B-98FE-FB22CC099C19}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,12 +1072,78 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224D5573-4A17-4251-AC4D-57D7CE731F0A}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDDA8884-DB44-4245-A0E9-935889F942E1}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,12 +1197,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E8CAB4-99EF-44C2-A3E8-6FD0634FCC18}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C6"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,7 +1272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B531AE72-A516-47C3-9A94-8ACF7699918D}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1103,152 +1331,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A451CA12-D4E9-412D-8A89-F3986287E4AB}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="4" width="17.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DEA5A8-DD02-4FE0-9C57-D98A56E01DBB}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="4" width="18.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1378,19 +1467,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90A3B950-F323-4FBB-803F-F53D66B677E8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C03F15B9-011E-4588-A3DA-4899781C1D9F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1414,9 +1499,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C03F15B9-011E-4588-A3DA-4899781C1D9F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90A3B950-F323-4FBB-803F-F53D66B677E8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Szakdolgozat_WEBSHOP-SQL.xlsx
+++ b/Szakdolgozat_WEBSHOP-SQL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilyes.borbala\Documents\Ilyés Borbála\szakdoga\SQL-WEBSHOP_Szakdolgozat-2025-26\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CDD1CD-EA94-4EDA-9574-F82AC50A27D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB9A3B2-A4CF-481B-828A-CB099EA03842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="4" activeTab="5" xr2:uid="{F2BFF730-DC48-4C04-A1D0-7D82C6AC042A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="5" xr2:uid="{F2BFF730-DC48-4C04-A1D0-7D82C6AC042A}"/>
   </bookViews>
   <sheets>
     <sheet name="User (Felhasznalo)" sheetId="1" r:id="rId1"/>
@@ -1010,7 +1010,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,12 +1332,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1467,15 +1464,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C03F15B9-011E-4588-A3DA-4899781C1D9F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90A3B950-F323-4FBB-803F-F53D66B677E8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1499,10 +1500,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90A3B950-F323-4FBB-803F-F53D66B677E8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C03F15B9-011E-4588-A3DA-4899781C1D9F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Szakdolgozat_WEBSHOP-SQL.xlsx
+++ b/Szakdolgozat_WEBSHOP-SQL.xlsx
@@ -8,22 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilyes.borbala\Documents\Ilyés Borbála\szakdoga\SQL-WEBSHOP_Szakdolgozat-2025-26\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB9A3B2-A4CF-481B-828A-CB099EA03842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9397061-36E2-4DF1-916A-A236149AECF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="5" xr2:uid="{F2BFF730-DC48-4C04-A1D0-7D82C6AC042A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="5" xr2:uid="{F2BFF730-DC48-4C04-A1D0-7D82C6AC042A}"/>
   </bookViews>
   <sheets>
     <sheet name="User (Felhasznalo)" sheetId="1" r:id="rId1"/>
-    <sheet name="Munka1" sheetId="12" r:id="rId2"/>
-    <sheet name="Item (Cikk)" sheetId="8" r:id="rId3"/>
-    <sheet name="Package (Csomag)" sheetId="9" r:id="rId4"/>
-    <sheet name="Order (Rendeles)" sheetId="10" r:id="rId5"/>
-    <sheet name="Package_Item(Csomagtétel)" sheetId="13" r:id="rId6"/>
-    <sheet name="Order_item (Rendeles_tetel)" sheetId="11" r:id="rId7"/>
-    <sheet name="Card_detail (Bankkartya_adat)" sheetId="3" r:id="rId8"/>
-    <sheet name="Payment (Fizetes)" sheetId="7" r:id="rId9"/>
-    <sheet name="Home_delivery(Hazhoz_szallitas)" sheetId="4" r:id="rId10"/>
-    <sheet name="Package_pickup (Csomagatvetel)" sheetId="6" r:id="rId11"/>
+    <sheet name="Item (Cikk)" sheetId="8" r:id="rId2"/>
+    <sheet name="Package (Csomag)" sheetId="9" r:id="rId3"/>
+    <sheet name="Order (Rendeles)" sheetId="10" r:id="rId4"/>
+    <sheet name="Package_Item(Csomagtétel)" sheetId="13" r:id="rId5"/>
+    <sheet name="Order_item (Rendeles_tetel)" sheetId="11" r:id="rId6"/>
+    <sheet name="Card_detail (Bankkartya_adat)" sheetId="3" r:id="rId7"/>
+    <sheet name="Payment (Fizetes)" sheetId="7" r:id="rId8"/>
+    <sheet name="Home_delivery(Hazhoz_szallitas)" sheetId="4" r:id="rId9"/>
+    <sheet name="Package_pickup (Csomagatvetel)" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -633,7 +632,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,11 +733,70 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A451CA12-D4E9-412D-8A89-F3986287E4AB}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DEA5A8-DD02-4FE0-9C57-D98A56E01DBB}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection sqref="A1:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC54B49-F553-4F18-B528-CA727B92FF1D}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,18 +820,18 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
@@ -781,7 +839,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -789,26 +847,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -816,150 +858,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DEA5A8-DD02-4FE0-9C57-D98A56E01DBB}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="4" width="18.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748F45BC-A829-4C8A-A726-34129AD08EC1}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC54B49-F553-4F18-B528-CA727B92FF1D}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="4" width="17.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CBEFB2-AAE7-4268-9053-213ADBBB3A08}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,12 +909,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3CAB46-678D-452B-98FE-FB22CC099C19}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,12 +976,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224D5573-4A17-4251-AC4D-57D7CE731F0A}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,12 +1042,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDDA8884-DB44-4245-A0E9-935889F942E1}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,12 +1101,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E8CAB4-99EF-44C2-A3E8-6FD0634FCC18}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,12 +1176,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B531AE72-A516-47C3-9A94-8ACF7699918D}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,10 +1235,96 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A451CA12-D4E9-412D-8A89-F3986287E4AB}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1464,19 +1454,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90A3B950-F323-4FBB-803F-F53D66B677E8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C03F15B9-011E-4588-A3DA-4899781C1D9F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1500,9 +1486,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C03F15B9-011E-4588-A3DA-4899781C1D9F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90A3B950-F323-4FBB-803F-F53D66B677E8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>